--- a/Datasets/SAPA18_IO_Plate01_12022022_NPX_annotated_4.2023_LEWIS.xlsx
+++ b/Datasets/SAPA18_IO_Plate01_12022022_NPX_annotated_4.2023_LEWIS.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoaleman/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a123/Desktop/CMU/Capstone/CRS-Detection/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB19D139-F273-074D-853C-5D6AE6E838F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA753C06-66BF-004D-A0B3-C488608D9EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="14100" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NPX Data" sheetId="1" r:id="rId1"/>
     <sheet name="Clinical Data" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
+  <pivotCaches>
+    <pivotCache cacheId="6" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -60,8 +64,30 @@
 </comments>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2487" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2493" uniqueCount="563">
   <si>
     <t>SAPA18_IO_Plate01_12022022</t>
   </si>
@@ -1739,6 +1765,18 @@
   <si>
     <t>P01_HDPlasma_1017</t>
   </si>
+  <si>
+    <t>Count of Plate ID</t>
+  </si>
+  <si>
+    <t>#NAME?</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
 </sst>
 </file>
 
@@ -1784,7 +1822,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1804,6 +1842,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1825,6 +1865,372 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Rajeeve, Sridevi" id="{C82D2C37-6D0B-44C2-90A4-C65522371EFE}" userId="S::sridevi.rajeeve@mountsinai.org::c0e48c73-158c-4ce6-a887-f82977c7a4da" providerId="AD"/>
 </personList>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Tanyue Yao" refreshedDate="45593.494321990744" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="94" xr:uid="{8F22420D-7A4D-534F-A953-AE91BEF889E0}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="DE1:DE95" sheet="Clinical Data"/>
+  </cacheSource>
+  <cacheFields count="1">
+    <cacheField name="Plate ID" numFmtId="0">
+      <sharedItems containsBlank="1" count="3">
+        <s v="SAPA18_IO_Plate01_12022022"/>
+        <m/>
+        <e v="#NAME?"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="94">
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B88D7BF7-1C40-1942-83C2-EB15C18BE318}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A2:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" sortType="descending">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Plate ID" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29609,11 +30015,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:DH92"/>
+  <dimension ref="A1:DH95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="DE98" sqref="DE98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -29634,7 +30040,7 @@
     <col min="14" max="14" width="14.1640625" customWidth="1"/>
     <col min="15" max="15" width="14" customWidth="1"/>
     <col min="16" max="16" width="7.6640625" customWidth="1"/>
-    <col min="109" max="109" width="17.1640625" customWidth="1"/>
+    <col min="109" max="109" width="60.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:112" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -60160,6 +60566,12 @@
         <v>380</v>
       </c>
     </row>
+    <row r="95" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="DE95" t="e" cm="1">
+        <f t="array" ref="DE95" xml:space="preserve"> UN</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:DG88">
     <sortCondition ref="B2:B88"/>
@@ -60168,4 +60580,59 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF577F3-FD1A-3241-BE51-359880C0E52D}">
+  <dimension ref="A2:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="11">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>560</v>
+      </c>
+      <c r="B4" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>561</v>
+      </c>
+      <c r="B5" s="11"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>562</v>
+      </c>
+      <c r="B6" s="11">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>